--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Text.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Text.xlsx
@@ -749,13 +749,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1216,10 +1215,6 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Text.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Text.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -117,17 +104,23 @@
   </si>
   <si>
     <t>生命值不足！</t>
+  </si>
+  <si>
+    <t>SpellCast_TargetNotInFrontOfCaster</t>
+  </si>
+  <si>
+    <t>目标不在前方</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,26 +143,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,11 +203,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,96 +233,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -309,6 +302,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +428,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,139 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,16 +497,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,16 +530,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +569,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -603,148 +596,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -758,52 +751,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1075,22 +1068,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="36.5132743362832" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="20.7522123893805" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.5" spans="1:5">
+    <row r="1" customFormat="1" ht="14.6" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:5">
+    <row r="2" customFormat="1" ht="14.6" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="16.5" spans="1:5">
+    <row r="3" customFormat="1" ht="14.6" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16.5" spans="2:5">
+    <row r="4" customFormat="1" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:5">
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1160,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="16.5" spans="2:5">
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
@@ -1179,7 +1172,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="16.5" spans="2:5">
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1184,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="16.5" spans="2:5">
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1196,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="16.5" spans="2:5">
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1214,6 +1207,17 @@
         <v>29</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
